--- a/LOG430-TP2/doc/Plan de test.xlsx
+++ b/LOG430-TP2/doc/Plan de test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="43">
   <si>
     <t>Plan de test</t>
   </si>
@@ -84,9 +84,6 @@
     <t>CRS</t>
   </si>
   <si>
-    <t>Liste des cours non attribué pour la session</t>
-  </si>
-  <si>
     <t>LOG210</t>
   </si>
   <si>
@@ -103,6 +100,51 @@
   </si>
   <si>
     <t>On vérifie que le cours assigné n'est plus dans la liste des cours non attribué</t>
+  </si>
+  <si>
+    <t>Test pour la modification 3</t>
+  </si>
+  <si>
+    <t>Liste des cours non attribué pour la session courante</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>On assigne le cours LOG210 groupe 2 à un enseignant</t>
+  </si>
+  <si>
+    <t>On essaie d'assigne le cours LOG210 groupe 2 à un autre enseignant</t>
+  </si>
+  <si>
+    <t>Avertissement</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Continuer</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>Vérification</t>
+  </si>
+  <si>
+    <t>Liste des cours non attribué pour la session courante (le groupe 2 de LOG210 n'y figure pas)</t>
+  </si>
+  <si>
+    <t>Test pour la modification 4</t>
   </si>
 </sst>
 </file>
@@ -264,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -276,6 +318,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,16 +651,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I44"/>
+  <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -625,7 +672,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,12 +753,12 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
@@ -720,12 +767,12 @@
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
@@ -734,12 +781,12 @@
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
@@ -748,12 +795,12 @@
       <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -762,21 +809,21 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+      <c r="B25" s="16">
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -790,7 +837,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
@@ -802,7 +849,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4" t="s">
         <v>18</v>
       </c>
@@ -814,9 +861,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -826,9 +873,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="14" t="s">
-        <v>23</v>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
@@ -838,9 +885,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -850,9 +897,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -861,12 +908,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>2</v>
       </c>
@@ -886,9 +933,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4">
         <v>5</v>
@@ -897,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -906,23 +953,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="13">
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -935,8 +982,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="17"/>
       <c r="C40" s="4" t="s">
         <v>18</v>
       </c>
@@ -947,8 +994,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
       <c r="C41" s="4" t="s">
         <v>18</v>
       </c>
@@ -959,10 +1006,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="17"/>
       <c r="C42" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -971,10 +1018,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="14" t="s">
-        <v>23</v>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="17"/>
+      <c r="C43" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D43" s="4">
         <v>2</v>
@@ -983,10 +1030,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
       <c r="C44" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -995,8 +1042,282 @@
         <v>21</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="13">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="17"/>
+      <c r="C56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="17"/>
+      <c r="C57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="17"/>
+      <c r="C58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="17"/>
+      <c r="C59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="14"/>
+      <c r="C60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="4">
+        <v>5</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K65" s="4">
+        <v>3</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="4">
+        <v>5</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" s="4">
+        <v>3</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B25:B31"/>
     <mergeCell ref="C38:E38"/>

--- a/LOG430-TP2/doc/Plan de test.xlsx
+++ b/LOG430-TP2/doc/Plan de test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
   <si>
     <t>Plan de test</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Test pour la modification 2</t>
   </si>
   <si>
+    <t>ETS003</t>
+  </si>
+  <si>
     <t>ETS007</t>
   </si>
   <si>
@@ -145,16 +148,99 @@
   </si>
   <si>
     <t>Test pour la modification 4</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ETS004</t>
+  </si>
+  <si>
+    <t>ETS005</t>
+  </si>
+  <si>
+    <t>ETS006</t>
+  </si>
+  <si>
+    <t>ETS008</t>
+  </si>
+  <si>
+    <t>ETS009</t>
+  </si>
+  <si>
+    <t>PRF</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRF</t>
+  </si>
+  <si>
+    <t>ETS010</t>
+  </si>
+  <si>
+    <t>LOG120, MGL802</t>
+  </si>
+  <si>
+    <t>GTI210</t>
+  </si>
+  <si>
+    <t>LOG550</t>
+  </si>
+  <si>
+    <t>LOG530, LOG120, LOG210, LOG720</t>
+  </si>
+  <si>
+    <t>LOG619, MT1829</t>
+  </si>
+  <si>
+    <t>LOG240, LOG240</t>
+  </si>
+  <si>
+    <t>MGL801, LOG410</t>
+  </si>
+  <si>
+    <t>On ajoute des cours aux enseignants</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>Limites de cours pour l'année (3 pour enseignant, 5 pour chargé de cours), Laboratoires ne compte pas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,14 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -191,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +281,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -213,6 +296,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -224,6 +325,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -302,57 +418,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -651,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N69"/>
+  <dimension ref="A2:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,40 +790,41 @@
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -711,14 +837,14 @@
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -729,36 +855,36 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
@@ -767,12 +893,12 @@
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
@@ -781,136 +907,137 @@
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
+      <c r="B25" s="17">
         <v>7</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="15" t="s">
-        <v>22</v>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,133 +1050,134 @@
       <c r="D34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="E34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4">
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="13">
+      <c r="B39" s="14">
         <v>7</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="18"/>
+      <c r="C40" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
-      <c r="C40" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="17"/>
-      <c r="C43" s="15" t="s">
-        <v>22</v>
+      <c r="B43" s="18"/>
+      <c r="C43" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D43" s="4">
         <v>2</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
@@ -1062,175 +1190,175 @@
       <c r="D50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="E50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51" s="4">
         <v>5</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F51" s="4">
         <v>2</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="13">
+      <c r="B55" s="14">
         <v>7</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="17"/>
-      <c r="C56" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="17"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="17"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="17"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="E64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" s="9"/>
-      <c r="J64" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="G64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="10"/>
+      <c r="J64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="L64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>19</v>
+      <c r="M64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C65" s="4">
         <v>5</v>
@@ -1239,20 +1367,20 @@
         <v>10</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F65" s="4">
         <v>2</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="9"/>
       <c r="J65" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K65" s="4">
         <v>3</v>
@@ -1261,15 +1389,15 @@
         <v>10</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66" s="4">
         <v>5</v>
@@ -1278,20 +1406,20 @@
         <v>10</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F66" s="4">
         <v>2</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I66" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" s="9"/>
       <c r="J66" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K66" s="4">
         <v>3</v>
@@ -1300,19 +1428,260 @@
         <v>10</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N66" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="69" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="17">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="17"/>
+      <c r="C76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="17"/>
+      <c r="C77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="17"/>
+      <c r="C78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="17"/>
+      <c r="C79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="17"/>
+      <c r="C80" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="17"/>
+      <c r="C81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="17"/>
+      <c r="C82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="17"/>
+      <c r="C83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="17"/>
+      <c r="C84" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="4">
+        <v>5</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="26">
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="B75:B84"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E83:H83"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="H64:I64"/>

--- a/LOG430-TP2/doc/Plan de test.xlsx
+++ b/LOG430-TP2/doc/Plan de test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="76">
   <si>
     <t>Plan de test</t>
   </si>
@@ -208,6 +208,42 @@
   </si>
   <si>
     <t>Limites de cours pour l'année (3 pour enseignant, 5 pour chargé de cours), Laboratoires ne compte pas</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>On vérifie les conflits</t>
+  </si>
+  <si>
+    <t>4e</t>
+  </si>
+  <si>
+    <t>On ajoute un cours pour la session courante au prof ETS007</t>
+  </si>
+  <si>
+    <t>On essaie d'ajouter un autre cours au prof ETS007 (qui en avait 0 pour l'année donc n'atteint pas sa limite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Limite atteinte</t>
+  </si>
+  <si>
+    <t>Conflit</t>
   </si>
 </sst>
 </file>
@@ -425,7 +461,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3"/>
@@ -436,9 +472,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,8 +502,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -776,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N88"/>
+  <dimension ref="A2:T108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,16 +848,16 @@
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -879,12 +916,12 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
@@ -893,12 +930,12 @@
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
@@ -907,12 +944,12 @@
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
@@ -921,12 +958,12 @@
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="21" spans="1:7" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
@@ -943,14 +980,14 @@
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -964,7 +1001,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
@@ -976,7 +1013,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4" t="s">
         <v>19</v>
       </c>
@@ -988,7 +1025,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
@@ -1000,8 +1037,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="4">
@@ -1012,7 +1049,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1024,7 +1061,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
@@ -1089,14 +1126,14 @@
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1110,7 +1147,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="18"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="4" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1159,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="4" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1171,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="18"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="4" t="s">
         <v>23</v>
       </c>
@@ -1146,8 +1183,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
-      <c r="C43" s="16" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="4">
@@ -1158,7 +1195,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
@@ -1229,14 +1266,14 @@
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -1250,7 +1287,7 @@
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="4" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1299,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="4" t="s">
         <v>19</v>
       </c>
@@ -1274,7 +1311,7 @@
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="4" t="s">
         <v>23</v>
       </c>
@@ -1286,7 +1323,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="18"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="4" t="s">
         <v>24</v>
       </c>
@@ -1298,7 +1335,7 @@
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="4" t="s">
         <v>25</v>
       </c>
@@ -1336,10 +1373,10 @@
       <c r="G64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I64" s="10"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="2" t="s">
         <v>37</v>
       </c>
@@ -1358,7 +1395,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C65" s="4">
         <v>5</v>
@@ -1375,10 +1412,10 @@
       <c r="G65" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I65" s="9"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="4" t="s">
         <v>39</v>
       </c>
@@ -1397,7 +1434,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C66" s="4">
         <v>5</v>
@@ -1414,10 +1451,10 @@
       <c r="G66" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I66" s="9"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="4" t="s">
         <v>38</v>
       </c>
@@ -1441,9 +1478,18 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="B71" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
@@ -1460,15 +1506,15 @@
       <c r="D74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="17">
+      <c r="B75" s="16">
         <v>6</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -1477,154 +1523,154 @@
       <c r="D75" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="17"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="17"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="17"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="17"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="17"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="17"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="16"/>
       <c r="C81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="17"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="16"/>
       <c r="C82" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="17"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="16"/>
       <c r="C83" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="17"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="16"/>
       <c r="C84" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>2</v>
       </c>
@@ -1646,11 +1692,16 @@
       <c r="H87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>62</v>
       </c>
@@ -1663,18 +1714,412 @@
       <c r="E88" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="4">
+        <v>5</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="4">
+        <v>5</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="4">
+        <v>2</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="4">
+        <v>5</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="4">
+        <v>5</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="4">
+        <v>5</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="4">
+        <v>2</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="4">
+        <v>5</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="4">
+        <v>5</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="19"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="4">
+        <v>5</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="4">
+        <v>5</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="4">
+        <v>5</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="4">
+        <v>5</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="4">
+        <v>2</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="41">
+    <mergeCell ref="I107:K107"/>
+    <mergeCell ref="I108:K108"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="I106:K106"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="R87:T87"/>
+    <mergeCell ref="I92:K92"/>
     <mergeCell ref="E82:H82"/>
     <mergeCell ref="E80:H80"/>
     <mergeCell ref="E79:H79"/>
     <mergeCell ref="E78:H78"/>
     <mergeCell ref="E77:H77"/>
+    <mergeCell ref="I87:K87"/>
     <mergeCell ref="E81:H81"/>
     <mergeCell ref="B75:B84"/>
     <mergeCell ref="E74:H74"/>
